--- a/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
+++ b/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88410\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4888DA-5B25-49F6-88A4-9E52CEC810A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27162EB-90E0-4FED-926C-646BB5355013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t xml:space="preserve">dashboard </t>
   </si>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找索引模式mitre-attack-*中所有索引最近一年的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global_Dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +152,6 @@
     <t>Global_Hashes_Sha256</t>
   </si>
   <si>
-    <t>查找索引模式logs-*中所有索引最近一年的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global_Discover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,45 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_id:1 AND (process_parent_name:\"CmD.exe\" OR process_parent_name:\"powershell.exe\" OR process_parent_name:\"wscript.exe\" OR process_parent_name:\"cscript.exe\")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id:3 AND (NOT dst_ip_addr: \"127.0.0.1\" AND NOT dst_ip_addr:[10.0.0.0 TO 10.255.255.255] AND NOT dst_ip_addr:[192.168.0.0 TO 192.168.255.255] AND NOT dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_name: \"Microsoft-Windows-Sysmon\" AND event_id:15</t>
-  </si>
-  <si>
-    <t>event_id:12 OR event_id:13 OR event_id:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_name: \"Microsoft-Windows-Sysmon\" AND (event_id:19 OR event_id:20 OR event_id:21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_name: \"Microsoft-Windows-Security-Auditing\" AND (event_id:[4624 TO 4625] OR event_id:4634)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id: 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id:3 AND (dst_ip_addr:[10.0.0.0 TO 10.255.255.255] OR dst_ip_addr:[192.168.0.0 TO 192.168.255.255] OR dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MITRE-ATTACK-GROUPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定Matrix来过滤数据或者指定Platform来过滤数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mitre_attack_groups_techniques</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,18 +276,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_id:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sysmon_Named Pipes-EventId 17,18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_id:17 OR event_id:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sysmon_All_events</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sysmon_Process_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sysmon_module_loaded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,13 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定group、techniques来过滤数据， 或者指定Matrix过滤数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照permissions_required分组，统计每个permissions_required有多少个不同的technique</t>
-  </si>
-  <si>
     <t>按照tactic分组，统计每个tactic有多少个不同的technique</t>
   </si>
   <si>
@@ -502,24 +432,12 @@
     <t>按照technique分组，统计每个technique有多少个不同的data_sources</t>
   </si>
   <si>
-    <t>按照mitigation分组，统计每个mitigation有多少个不同的technique</t>
-  </si>
-  <si>
     <t>按照group分组，统计每个group有多少个不同的technique</t>
   </si>
   <si>
     <t>统计索引模式logs-*中所有索引共多少条记录</t>
   </si>
   <si>
-    <t>按照event_id分组，统计每个event_id有多少条记录</t>
-  </si>
-  <si>
-    <t>按照host_name分组，统计每个host_name有多少条记录</t>
-  </si>
-  <si>
-    <t>按照user_name分组，统计每个user_name有多少条记录</t>
-  </si>
-  <si>
     <t>按照process_name分组，统计每个process_name有多少条记录</t>
   </si>
   <si>
@@ -559,9 +477,6 @@
     <t>按照file_name分组，统计每个file_name有多少条记录</t>
   </si>
   <si>
-    <t>按照process_id分组，统计每个process_id有多少条记录</t>
-  </si>
-  <si>
     <t>按照module_loaded分组，统计每个module_loaded有多少条记录</t>
   </si>
   <si>
@@ -571,15 +486,6 @@
     <t>统计索引模式logs-endpoint-winevent-sysmon-*中所有索引的event_id=3的记录的数量</t>
   </si>
   <si>
-    <t>对event_id=3的记录，按照host_name分组， 统计每个host_name有多少条记录</t>
-  </si>
-  <si>
-    <t>对event_id=3的记录，按照meta_dst_ip_geo分组， 统计每个meta_dst_ip_geo有多少条记录</t>
-  </si>
-  <si>
-    <t>对event_id=3的记录，按照dst_ip_addr分组， 统计每个dst_ip_addr有多少条记录</t>
-  </si>
-  <si>
     <t>对event_id=3的记录，按照user_name分组， 统计每个user_name有多少条记录</t>
   </si>
   <si>
@@ -596,6 +502,141 @@
   </si>
   <si>
     <t>按照matrix分组，统计每个matrix有多少个不同的technique</t>
+  </si>
+  <si>
+    <t>Sysmon_Process_Command_Line</t>
+  </si>
+  <si>
+    <t>按照process_command_line分组，统计每个process_command_line有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sysmon_Process_Parent_Name</t>
+  </si>
+  <si>
+    <t>按照process_parent_name分组，统计每个process_parent_name有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sysmon_Process_Parent_Command_Line</t>
+  </si>
+  <si>
+    <t>按照process_parent_command_line 分组，统计每个process_parent_command_line 有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定Matrix或者Platform为某个特定的值来为整个ALL-MITRE-ATTACK dashboard过滤数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照mitigation分组，以饼图形式展现每个mitigation有多少个不同的technique以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照permissions_required分组，以饼图形式展现每个permissions_required有多少个不同的technique以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照event_id分组，以饼图形式展现每个event_id有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照host_name分组，以饼图形式展现每个host_name有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">按照user_name分组，以饼图形式展现每个user_name有多少条记录以及所占百分比 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从索引模式mitre-attack-*中所有索引检索指定时间范围内的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从索引模式logs-*中所有索引检索指定时间范围内的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:1 AND (process_parent_name:\"CmD.exe\" OR process_parent_name:\"powershell.exe\" OR process_parent_name:\"wscript.exe\" OR process_parent_name:\"cscript.exe\")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:3 AND (NOT dst_ip_addr: \"127.0.0.1\" AND NOT dst_ip_addr:[10.0.0.0 TO 10.255.255.255] AND NOT dst_ip_addr:[192.168.0.0 TO 192.168.255.255] AND NOT dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND event_id:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:12 OR event_id:13 OR event_id:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND (event_id:19 OR event_id:20 OR event_id:21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Security-Auditing\" AND (event_id:[4624 TO 4625] OR event_id:4634)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id: 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:3 AND (dst_ip_addr:[10.0.0.0 TO 10.255.255.255] OR dst_ip_addr:[192.168.0.0 TO 192.168.255.255] OR dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回特定查询语句的记录。该查询语句为：event_id:17 OR event_id:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定group、techniques或者Matrix为某个特定的值来为整个MITRE-ATTACK-GROUPS dashboard过滤数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照user_name分组，以饼图形式展现每个user_name有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对event_id=3的记录，按照host_name分组，以饼图形式展现每个host_name有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对event_id=3的记录，按照meta_dst_ip_geo分组， 以饼图形式展现每个meta_dst_ip_geo有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对event_id=3的记录，按照dst_ip_addr分组， 以饼图形式展现每个dst_ip_addr有多少条记录以及所占百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_Process_Parent_Name</t>
+  </si>
+  <si>
+    <t>Global_Service_Name</t>
+  </si>
+  <si>
+    <t>按照process_parent_name 分组，统计每个process_parent_name 有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照service_name分组，统计每个service_name有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -923,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -934,7 +975,7 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="42.59765625" customWidth="1"/>
     <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="126.06640625" customWidth="1"/>
+    <col min="4" max="4" width="156.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -962,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -973,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -984,7 +1025,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -995,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1006,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1017,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1028,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1039,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1050,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1061,7 +1102,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1072,798 +1113,842 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="s">
-        <v>56</v>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="D77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
-        <v>108</v>
-      </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>115</v>
-      </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
+++ b/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88410\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepo\pythoncode\AnalyzeExcelFile\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27162EB-90E0-4FED-926C-646BB5355013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC44FDE-9138-467A-985D-7FD0D3035F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
   <si>
     <t xml:space="preserve">dashboard </t>
   </si>
@@ -636,6 +636,14 @@
   </si>
   <si>
     <t>按照service_name分组，统计每个service_name有多少条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照software分组，统计每个software有多少个不同的group，将group数量多的software突出显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照data_sources分组，统计每个data_sources有多少个不同的technique，将technique数量多的data_sources突出显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1047,7 +1055,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1430,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">

--- a/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
+++ b/AnalyzeExcelFile/resource/helk dashboard visualization_补充完整.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepo\pythoncode\AnalyzeExcelFile\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC44FDE-9138-467A-985D-7FD0D3035F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D404933-7A79-47FC-9668-47C85010C066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="169">
   <si>
     <t xml:space="preserve">dashboard </t>
   </si>
@@ -557,58 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:1 AND (process_parent_name:\"CmD.exe\" OR process_parent_name:\"powershell.exe\" OR process_parent_name:\"wscript.exe\" OR process_parent_name:\"cscript.exe\")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:3 AND (NOT dst_ip_addr: \"127.0.0.1\" AND NOT dst_ip_addr:[10.0.0.0 TO 10.255.255.255] AND NOT dst_ip_addr:[192.168.0.0 TO 192.168.255.255] AND NOT dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND event_id:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:12 OR event_id:13 OR event_id:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND (event_id:19 OR event_id:20 OR event_id:21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：source_name: \"Microsoft-Windows-Security-Auditing\" AND (event_id:[4624 TO 4625] OR event_id:4634)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id: 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:3 AND (dst_ip_addr:[10.0.0.0 TO 10.255.255.255] OR dst_ip_addr:[192.168.0.0 TO 192.168.255.255] OR dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回特定查询语句的记录。该查询语句为：event_id:17 OR event_id:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定group、techniques或者Matrix为某个特定的值来为整个MITRE-ATTACK-GROUPS dashboard过滤数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按照user_name分组，以饼图形式展现每个user_name有多少条记录以及所占百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,6 +592,62 @@
   </si>
   <si>
     <t>按照data_sources分组，统计每个data_sources有多少个不同的technique，将technique数量多的data_sources突出显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定group、techniques或者Matrix为某个特定的值来为整个MITRE-ATTACK-GROUPS dashboard过滤数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从索引模式mitre-attack-*中所有索引检索指定时间范围内的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索进程创建事件， 查询语句为：event_id:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索文件创建事件， 查询语句为：event_id:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索文件下载事件， 查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND event_id:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索注册表事件， 查询语句为：event_id:12 OR event_id:13 OR event_id:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索登录事件， 查询语句为：source_name: \"Microsoft-Windows-Security-Auditing\" AND (event_id:[4624 TO 4625] OR event_id:4634)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索执行命令的事件， 查询语句为：event_id:1 AND (process_parent_name:\"CmD.exe\" OR process_parent_name:\"powershell.exe\" OR process_parent_name:\"wscript.exe\" OR process_parent_name:\"cscript.exe\")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索连接外部网络事件，查询语句为：event_id:3 AND (NOT dst_ip_addr: \"127.0.0.1\" AND NOT dst_ip_addr:[10.0.0.0 TO 10.255.255.255] AND NOT dst_ip_addr:[192.168.0.0 TO 192.168.255.255] AND NOT dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索WMI订阅事件，查询语句为：source_name: \"Microsoft-Windows-Sysmon\" AND (event_id:19 OR event_id:20 OR event_id:21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索驱动程序加载事件，查询语句为：event_id: 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索连接局域网事件，查询语句为：event_id:3 AND (dst_ip_addr:[10.0.0.0 TO 10.255.255.255] OR dst_ip_addr:[192.168.0.0 TO 192.168.255.255] OR dst_ip_addr:[172.16.0.0 TO 172.31.255.255])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索命名管道创建或者连接事件，查询语句为：event_id:17 OR event_id:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索网络连接事件，查询语句为：event_id:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1055,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1228,24 +1232,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1292,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1303,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1314,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1325,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1347,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1358,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1369,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1380,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1391,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1405,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1438,7 +1442,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1493,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1518,7 +1522,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1529,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1540,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1551,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -1562,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -1573,7 +1577,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -1631,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
@@ -1777,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -1788,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -1799,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -1890,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -1901,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -1912,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.4">
@@ -1923,7 +1927,7 @@
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.4">
@@ -1934,7 +1938,7 @@
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.4">
@@ -1945,7 +1949,7 @@
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.4">
@@ -1956,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
